--- a/Data/EC/NIT-8904036198.xlsx
+++ b/Data/EC/NIT-8904036198.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F706A0E8-EB3A-49DE-A281-310503528A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B22A7DD-BD80-4B11-BF86-300D99DDA793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C7BB2BB2-8F81-4DCD-A152-CC2E44994B0D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FE71321F-953A-4066-BE3A-418105075D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="68">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -59,184 +59,154 @@
     <t>NIT</t>
   </si>
   <si>
-    <t>GIMNASIO LUJAN LIMITADA</t>
+    <t>GIMNASIO LUJAN</t>
   </si>
   <si>
     <t>CC</t>
   </si>
   <si>
+    <t>8782634</t>
+  </si>
+  <si>
+    <t>ALISAWER GONZALO MEZA LEON</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>73570671</t>
+  </si>
+  <si>
+    <t>FREDYS SANABRIA DE ARCO</t>
+  </si>
+  <si>
+    <t>73266734</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO SALAS ECHEVERRY</t>
+  </si>
+  <si>
+    <t>73118950</t>
+  </si>
+  <si>
+    <t>FAJIB ANTONIO ELJACH CAMPILLO</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
     <t>73167992</t>
   </si>
   <si>
     <t>FAUSTO JOSE CHARRIS RODRIGUEZ</t>
   </si>
   <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>73117739</t>
+  </si>
+  <si>
+    <t>PABLO ELIAS JULIAO MARTELO</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>8782634</t>
-  </si>
-  <si>
-    <t>ALISAWER GONZALO MEZA LEON</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>73570671</t>
-  </si>
-  <si>
-    <t>FREDYS SANABRIA DE ARCO</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>73117739</t>
-  </si>
-  <si>
-    <t>PABLO ELIAS JULIAO MARTELO</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1104865873</t>
-  </si>
-  <si>
-    <t>ANA TULIA POLO LOPEZ</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>91438942</t>
-  </si>
-  <si>
-    <t>JOHN WILL SANCHEZ NUÑEZ</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>73266734</t>
-  </si>
-  <si>
-    <t>JOSE FRANCISCO SALAS ECHEVERRY</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>73118950</t>
-  </si>
-  <si>
-    <t>FAJIB ANTONIO ELJACH CAMPILLO</t>
-  </si>
-  <si>
-    <t>1143408970</t>
-  </si>
-  <si>
-    <t>MARIA JOSE VILORIA FONTALVO</t>
-  </si>
-  <si>
-    <t>2312</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -335,7 +305,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -348,9 +320,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -550,23 +520,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,10 +564,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,7 +620,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223899BB-5236-35C9-BCBB-B83AD718FE9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB8C79F-9252-6EA4-E7C8-6AE9CA49364D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,8 +971,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0969A493-BFEC-42ED-8B41-3A6D1C91D33E}">
-  <dimension ref="B2:J95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583D7B32-F600-4E10-A1BF-4D101CD7BA2C}">
+  <dimension ref="B2:J89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1026,7 +996,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1071,7 +1041,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1103,12 +1073,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3539452</v>
+        <v>3272912</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1119,17 +1089,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1156,13 +1126,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1179,10 +1149,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>84000</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="18">
-        <v>2100000</v>
+        <v>1865000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1193,19 +1163,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>84000</v>
+        <v>44000</v>
       </c>
       <c r="G17" s="18">
-        <v>2100000</v>
+        <v>1150000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1216,19 +1186,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>84000</v>
+        <v>47000</v>
       </c>
       <c r="G18" s="18">
-        <v>2100000</v>
+        <v>1100000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1239,19 +1209,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>46000</v>
+        <v>46800</v>
       </c>
       <c r="G19" s="18">
-        <v>2100000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1262,19 +1232,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>46000</v>
+        <v>44000</v>
       </c>
       <c r="G20" s="18">
-        <v>2100000</v>
+        <v>1150000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1285,19 +1255,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>60000</v>
+        <v>47000</v>
       </c>
       <c r="G21" s="18">
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1314,13 +1284,13 @@
         <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>46000</v>
+        <v>46800</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1331,19 +1301,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>60000</v>
+        <v>44000</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>1150000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1354,19 +1324,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>47000</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1383,13 +1353,13 @@
         <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>60000</v>
+        <v>46800</v>
       </c>
       <c r="G25" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1400,19 +1370,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>60000</v>
+        <v>44000</v>
       </c>
       <c r="G26" s="18">
-        <v>1500000</v>
+        <v>1150000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1423,16 +1393,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>44000</v>
+        <v>47000</v>
       </c>
       <c r="G27" s="18">
         <v>1100000</v>
@@ -1446,19 +1416,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>44000</v>
+        <v>46800</v>
       </c>
       <c r="G28" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1469,19 +1439,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>44000</v>
       </c>
       <c r="G29" s="18">
-        <v>1100000</v>
+        <v>1150000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1492,16 +1462,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>44000</v>
+        <v>47000</v>
       </c>
       <c r="G30" s="18">
         <v>1100000</v>
@@ -1515,19 +1485,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>44000</v>
       </c>
       <c r="G31" s="18">
-        <v>1100000</v>
+        <v>1150000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1538,16 +1508,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>44000</v>
+        <v>47000</v>
       </c>
       <c r="G32" s="18">
         <v>1100000</v>
@@ -1561,19 +1531,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="G33" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1584,19 +1554,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>44000</v>
+        <v>60000</v>
       </c>
       <c r="G34" s="18">
-        <v>1100000</v>
+        <v>1865000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1607,19 +1577,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>38200</v>
+        <v>44000</v>
       </c>
       <c r="G35" s="18">
-        <v>955000</v>
+        <v>1150000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1630,19 +1600,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>38200</v>
+        <v>47000</v>
       </c>
       <c r="G36" s="18">
-        <v>955000</v>
+        <v>1100000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1653,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>38200</v>
+        <v>46000</v>
       </c>
       <c r="G37" s="18">
-        <v>955000</v>
+        <v>1423500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1676,19 +1646,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>56940</v>
+        <v>47000</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>1100000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1699,19 +1669,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>46000</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1722,19 +1692,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>37600</v>
+        <v>47000</v>
       </c>
       <c r="G40" s="18">
-        <v>940000</v>
+        <v>1100000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1745,19 +1715,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="G41" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1768,16 +1738,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="G42" s="18">
         <v>1100000</v>
@@ -1791,19 +1761,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
         <v>46000</v>
       </c>
       <c r="G43" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1814,19 +1784,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>46000</v>
+        <v>60000</v>
       </c>
       <c r="G44" s="18">
-        <v>1100000</v>
+        <v>1865000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1837,16 +1807,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>35112</v>
+        <v>47000</v>
       </c>
       <c r="G45" s="18">
         <v>1100000</v>
@@ -1860,19 +1830,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F46" s="18">
         <v>46000</v>
       </c>
       <c r="G46" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1883,16 +1853,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="G47" s="18">
         <v>1100000</v>
@@ -1906,19 +1876,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F48" s="18">
         <v>46000</v>
       </c>
       <c r="G48" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1929,16 +1899,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="G49" s="18">
         <v>1100000</v>
@@ -1952,19 +1922,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F50" s="18">
         <v>46000</v>
       </c>
       <c r="G50" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1975,16 +1945,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="G51" s="18">
         <v>1100000</v>
@@ -1998,19 +1968,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F52" s="18">
         <v>46000</v>
       </c>
       <c r="G52" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2021,19 +1991,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>46000</v>
+        <v>60000</v>
       </c>
       <c r="G53" s="18">
-        <v>1100000</v>
+        <v>1865000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2044,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>46000</v>
@@ -2067,19 +2037,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>46000</v>
+        <v>44000</v>
       </c>
       <c r="G55" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2090,13 +2060,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>46000</v>
@@ -2113,19 +2083,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>46000</v>
+        <v>44000</v>
       </c>
       <c r="G57" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2136,19 +2106,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G58" s="18">
-        <v>1100000</v>
+        <v>1865000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2159,19 +2129,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>47000</v>
+        <v>44000</v>
       </c>
       <c r="G59" s="18">
-        <v>1100000</v>
+        <v>1150000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2182,16 +2152,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F60" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G60" s="18">
         <v>1100000</v>
@@ -2205,16 +2175,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G61" s="18">
         <v>1100000</v>
@@ -2228,19 +2198,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>47000</v>
+        <v>60000</v>
       </c>
       <c r="G62" s="18">
-        <v>1100000</v>
+        <v>1865000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2251,16 +2221,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G63" s="18">
         <v>1100000</v>
@@ -2274,16 +2244,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G64" s="18">
         <v>1100000</v>
@@ -2297,16 +2267,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F65" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G65" s="18">
         <v>1100000</v>
@@ -2320,16 +2290,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F66" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G66" s="18">
         <v>1100000</v>
@@ -2343,16 +2313,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F67" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G67" s="18">
         <v>1100000</v>
@@ -2366,16 +2336,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F68" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G68" s="18">
         <v>1100000</v>
@@ -2389,19 +2359,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="E69" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F69" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G69" s="18">
-        <v>1100000</v>
+        <v>2100000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2412,16 +2382,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F70" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G70" s="18">
         <v>1100000</v>
@@ -2435,19 +2405,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="E71" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F71" s="18">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="G71" s="18">
-        <v>1100000</v>
+        <v>2100000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2458,16 +2428,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F72" s="18">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="G72" s="18">
         <v>1100000</v>
@@ -2481,19 +2451,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F73" s="18">
-        <v>44000</v>
+        <v>38200</v>
       </c>
       <c r="G73" s="18">
-        <v>1100000</v>
+        <v>980657</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2504,16 +2474,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F74" s="18">
-        <v>46000</v>
+        <v>35112</v>
       </c>
       <c r="G74" s="18">
         <v>1100000</v>
@@ -2527,19 +2497,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F75" s="18">
-        <v>46000</v>
+        <v>38200</v>
       </c>
       <c r="G75" s="18">
-        <v>1100000</v>
+        <v>980657</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2550,19 +2520,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F76" s="18">
-        <v>46000</v>
+        <v>38200</v>
       </c>
       <c r="G76" s="18">
-        <v>1100000</v>
+        <v>980657</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2573,13 +2543,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F77" s="18">
         <v>46000</v>
@@ -2596,13 +2566,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F78" s="18">
         <v>46000</v>
@@ -2619,13 +2589,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F79" s="18">
         <v>46000</v>
@@ -2642,19 +2612,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F80" s="18">
-        <v>46000</v>
+        <v>84000</v>
       </c>
       <c r="G80" s="18">
-        <v>1100000</v>
+        <v>2100000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2665,16 +2635,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F81" s="18">
-        <v>46000</v>
+        <v>44000</v>
       </c>
       <c r="G81" s="18">
         <v>1100000</v>
@@ -2688,213 +2658,75 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F82" s="18">
-        <v>46000</v>
+        <v>84000</v>
       </c>
       <c r="G82" s="18">
-        <v>1100000</v>
+        <v>2100000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F83" s="18">
-        <v>46800</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="18">
-        <v>46800</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F85" s="18">
-        <v>46800</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86" s="18">
-        <v>46800</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" s="17" t="s">
+      <c r="B83" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="24">
+        <v>84000</v>
+      </c>
+      <c r="G83" s="24">
+        <v>2100000</v>
+      </c>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="26"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="H88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E87" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F87" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F88" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F89" s="24">
-        <v>44000</v>
-      </c>
-      <c r="G89" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="26"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="32"/>
-      <c r="H94" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="32"/>
-      <c r="H95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="C89" s="32"/>
+      <c r="H89" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H88:J88"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
